--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/DefectiveItemsReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/DefectiveItemsReport.xlsx
@@ -11,7 +11,11 @@
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" name="DynamicColls" vbProcedure="false">Лист1!$C$12:$C$13</definedName>
     <definedName function="false" hidden="false" name="Rows" vbProcedure="false">Лист1!$A$3:$J$4</definedName>
+    <definedName function="false" hidden="false" name="SummaryBySourceRows" vbProcedure="false">Лист1!$A$8:$D$9</definedName>
+    <definedName function="false" hidden="false" name="SummaryDisplayRows" vbProcedure="false">Лист1!$A$12:$D$13</definedName>
+    <definedName function="false" hidden="false" name="WarehouseNames" vbProcedure="false">Лист1!$C$11</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t xml:space="preserve">Отчёт по браку с {{StartDate}} по {{EndDate}}
 от {{CreatedAt}}</t>
@@ -71,19 +75,19 @@
     <t xml:space="preserve">{{item.DefectDetectedAt}}</t>
   </si>
   <si>
-    <t xml:space="preserve">{{item.DefectSource}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{item.DriverSurname}} МЛ №{{item.RouteListId}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{item.DocumentType}} {{item.Id}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{item.AuthorSurname}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{{item.}}</t>
+    <t xml:space="preserve">{{item.DefectSourceName}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{item.DriverLastName}} МЛ №{{item.RouteListId}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{item.DocumentTypeName}} {{item.Id}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{item.AuthorLastName}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{item.Comment}}</t>
   </si>
   <si>
     <t xml:space="preserve">Итого:</t>
@@ -98,33 +102,34 @@
     <t xml:space="preserve">За выбранный период на складе было выявленно:</t>
   </si>
   <si>
-    <t xml:space="preserve">30 браков по вине клиента</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47 браков по вине водителя</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1619 браков по вине склада</t>
+    <t xml:space="preserve">{{item.Value}} браков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">по вине {{item.Title}}</t>
   </si>
   <si>
     <t xml:space="preserve">Из них:</t>
   </si>
   <si>
-    <t xml:space="preserve">{{item.WarehouseName}}</t>
+    <t xml:space="preserve">{{item}}</t>
   </si>
   <si>
     <t xml:space="preserve">Итог</t>
   </si>
   <si>
-    <t xml:space="preserve">{{item.DefectName}}</t>
+    <t xml:space="preserve">{{item.Title}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{item.Summary}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -208,24 +213,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -352,148 +369,144 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="n">
+        <f aca="false">ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>22</v>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="D8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="D11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="4" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/DefectiveItemsReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/DefectiveItemsReport.xlsx
@@ -8,18 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\RiderProjects\Vodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Store\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE465235-FD16-4927-B36F-F941DE1DB67B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3927CA69-EAE8-4486-913E-101AA53604DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5895" yWindow="2040" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="DefectOldNames">Лист1!$C$19</definedName>
     <definedName name="DynamicColls">Лист1!$C$12:$C$13</definedName>
-    <definedName name="Rows">Лист1!$A$3:$J$4</definedName>
-    <definedName name="SummaryBySourceRows">Лист1!$A$8:$D$9</definedName>
-    <definedName name="SummaryDisplayRows">Лист1!$A$12:$D$13</definedName>
+    <definedName name="DynamicColumnsByOldNomenclatureRow">Лист1!$C$16:$C$17</definedName>
+    <definedName name="DynamicColumnsByOldNomenclatureWithTypeDefectRow">Лист1!$C$20:$C$21</definedName>
+    <definedName name="Rows">Лист1!$A$3:$P$4</definedName>
+    <definedName name="SourceOldNames">Лист1!$C$15</definedName>
+    <definedName name="SummaryByOldNomenclatureRows">Лист1!$A$16:$P$17</definedName>
+    <definedName name="SummaryByOldNomenclatureWithTypeDefectRows">Лист1!$A$20:$P$21</definedName>
+    <definedName name="SummaryBySourceRows">Лист1!$A$8:$P$9</definedName>
+    <definedName name="SummaryDisplayRows">Лист1!$A$12:$P$13</definedName>
     <definedName name="WarehouseNames">Лист1!$C$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -131,6 +137,15 @@
   </si>
   <si>
     <t>Отчёт по браку с {{StartDateString}} по {{EndDateString}} от {{CreatedAtString}}</t>
+  </si>
+  <si>
+    <t>Старая номенклатура</t>
+  </si>
+  <si>
+    <t>{{item.NomeclatureNameForSourceRow}}</t>
+  </si>
+  <si>
+    <t>{{item.NomeclatureNameForDefectRow}}</t>
   </si>
 </sst>
 </file>
@@ -184,9 +199,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +209,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -324,144 +339,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="27.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
